--- a/Data/Archive/BaselineCC.xlsx
+++ b/Data/Archive/BaselineCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyamishra/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3600A282-A045-A045-9F2E-A5168C0F362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ADFB44-A271-814D-80DC-13A13FC1D4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40660" yWindow="-2520" windowWidth="21240" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="302">
   <si>
     <t>Domain</t>
   </si>
@@ -959,15 +957,6 @@
     <t>You have received this survey because you currently care for one or more children. What best describes your role as a childcare provider? Select all that apply.</t>
   </si>
   <si>
-    <t xml:space="preserve">•I am a teacher in a licensed school/center-based childcare program  
-•I am a director/administrator of a licensed school/center-based childcare program  
-•I operate a licensed or registered home-based childcare program in my home                                                                     •I operate a licensed or registered home-based childcare program in my home  
-•I operate an unlicensed/license-exempt or unregistered home-based childcare program                                                  •I operate an unlicensed/license-exempt or unregistered childcare program in my client's home(s) 
-•I care for child(ren) age 0-5 of a family member, friend, or neighbor  
-•I care for child(ren) age 0-5 as a babysitter                             •I care for child(ren) age 0-5 as a nanny     
-•Other (please specify) [text entry] </t>
-  </si>
-  <si>
     <t>Do you spend time in the classroom(s) providing direct care to children in the program?</t>
   </si>
   <si>
@@ -1188,6 +1177,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> providing childcare or your childcare business </t>
     </r>
@@ -1196,6 +1186,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>if you were required to take at least 2 weeks of sick leave?</t>
     </r>
@@ -1220,6 +1211,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t> the coronavirus (COVID-19) pandemic, how often did you talk with a parent about something happening in the child’s family (for example child-parent relationships, stresses like parent’s finances and employment; family tensions)</t>
     </r>
@@ -1371,12 +1363,30 @@
 •No  
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">•I am a teacher in a licensed school/center-based childcare program  
+•I am a director/administrator of a licensed school/center-based childcare program  
+•I operate a licensed or registered home-based childcare program in my home                                                                      
+•I operate an unlicensed/license-exempt or unregistered home-based childcare program                                                  •I operate an unlicensed/license-exempt or unregistered childcare program in my client's home(s) 
+•I care for child(ren) age 0-5 of a family member, friend, or neighbor  
+•I care for child(ren) age 0-5 as a babysitter                             •I care for child(ren) age 0-5 as a nanny     
+•Other (please specify) [text entry] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•I am a teacher in a licensed school/center-based childcare program  
+•I am a director/administrator of a licensed school/center-based childcare program  
+•I operate a licensed or registered home-based childcare program in my home                                                                       
+•I operate an unlicensed/license-exempt or unregistered home-based childcare program                                                  •I operate an unlicensed/license-exempt or unregistered childcare program in my client's home(s) 
+•I care for child(ren) age 0-5 of a family member, friend, or neighbor  
+•I care for child(ren) age 0-5 as a babysitter                             •I care for child(ren) age 0-5 as a nanny     
+•Other (please specify) [text entry] </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1387,22 +1397,26 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3000,22 +3014,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B144" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +3046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="108" customHeight="1">
+    <row r="2" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3045,7 +3059,7 @@
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
     </row>
-    <row r="3" spans="1:5" ht="108" customHeight="1">
+    <row r="3" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3058,7 +3072,7 @@
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
     </row>
-    <row r="4" spans="1:5" ht="104.25" customHeight="1">
+    <row r="4" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3071,7 +3085,7 @@
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3084,7 +3098,7 @@
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3097,7 +3111,7 @@
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="1:5" ht="135" customHeight="1">
+    <row r="7" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3110,7 +3124,7 @@
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
     </row>
-    <row r="8" spans="1:5" ht="135" customHeight="1">
+    <row r="8" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3123,7 +3137,7 @@
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:5" ht="134.25" customHeight="1">
+    <row r="9" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -3136,7 +3150,7 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:5" ht="67.5" customHeight="1">
+    <row r="10" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3149,7 +3163,7 @@
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:5" ht="90" customHeight="1">
+    <row r="11" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -3162,7 +3176,7 @@
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:5" ht="180" customHeight="1">
+    <row r="12" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3175,7 +3189,7 @@
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3188,7 +3202,7 @@
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -3201,7 +3215,7 @@
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="1:5" ht="135" customHeight="1">
+    <row r="15" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3214,7 +3228,7 @@
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:5" ht="135" customHeight="1">
+    <row r="16" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -3227,7 +3241,7 @@
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
     </row>
-    <row r="17" spans="1:5" ht="135" customHeight="1">
+    <row r="17" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -3240,7 +3254,7 @@
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
     </row>
-    <row r="18" spans="1:5" ht="75" customHeight="1">
+    <row r="18" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -3253,7 +3267,7 @@
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
     </row>
-    <row r="19" spans="1:5" ht="45" customHeight="1">
+    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -3266,7 +3280,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="1:5" ht="225" customHeight="1">
+    <row r="20" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -3279,7 +3293,7 @@
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="1:5" ht="232.5" customHeight="1">
+    <row r="21" spans="1:5" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -3292,7 +3306,7 @@
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="1:5" ht="179.25" customHeight="1">
+    <row r="22" spans="1:5" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -3305,7 +3319,7 @@
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="1:5" ht="90" customHeight="1">
+    <row r="23" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -3318,7 +3332,7 @@
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="1:5" ht="90" customHeight="1">
+    <row r="24" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -3331,7 +3345,7 @@
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
     </row>
-    <row r="25" spans="1:5" ht="90" customHeight="1">
+    <row r="25" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -3344,7 +3358,7 @@
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
     </row>
-    <row r="26" spans="1:5" ht="90" customHeight="1">
+    <row r="26" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -3357,7 +3371,7 @@
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
     </row>
-    <row r="27" spans="1:5" ht="90" customHeight="1">
+    <row r="27" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -3370,7 +3384,7 @@
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
     </row>
-    <row r="28" spans="1:5" ht="75" customHeight="1">
+    <row r="28" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -3383,7 +3397,7 @@
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
     </row>
-    <row r="29" spans="1:5" ht="105" customHeight="1">
+    <row r="29" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -3396,7 +3410,7 @@
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
     </row>
-    <row r="30" spans="1:5" ht="105" customHeight="1">
+    <row r="30" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3409,7 +3423,7 @@
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
     </row>
-    <row r="31" spans="1:5" ht="105" customHeight="1">
+    <row r="31" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3422,7 +3436,7 @@
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="1:5" ht="105" customHeight="1">
+    <row r="32" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
@@ -3435,7 +3449,7 @@
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="1:5" ht="105" customHeight="1">
+    <row r="33" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
@@ -3448,7 +3462,7 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="1:5" ht="105" customHeight="1">
+    <row r="34" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>65</v>
       </c>
@@ -3461,7 +3475,7 @@
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="1:5" ht="105" customHeight="1">
+    <row r="35" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>65</v>
       </c>
@@ -3474,7 +3488,7 @@
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
     </row>
-    <row r="36" spans="1:5" ht="105" customHeight="1">
+    <row r="36" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>65</v>
       </c>
@@ -3487,7 +3501,7 @@
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="1:5" ht="105" customHeight="1">
+    <row r="37" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>65</v>
       </c>
@@ -3500,7 +3514,7 @@
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
     </row>
-    <row r="38" spans="1:5" ht="105" customHeight="1">
+    <row r="38" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>65</v>
       </c>
@@ -3515,7 +3529,7 @@
       </c>
       <c r="E38" s="37"/>
     </row>
-    <row r="39" spans="1:5" ht="225" customHeight="1">
+    <row r="39" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>65</v>
       </c>
@@ -3530,7 +3544,7 @@
       </c>
       <c r="E39" s="37"/>
     </row>
-    <row r="40" spans="1:5" ht="75" customHeight="1">
+    <row r="40" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>65</v>
       </c>
@@ -3543,7 +3557,7 @@
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
     </row>
-    <row r="41" spans="1:5" ht="135" customHeight="1">
+    <row r="41" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -3556,7 +3570,7 @@
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
     </row>
-    <row r="42" spans="1:5" ht="135" customHeight="1">
+    <row r="42" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>65</v>
       </c>
@@ -3569,7 +3583,7 @@
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
     </row>
-    <row r="43" spans="1:5" ht="135" customHeight="1">
+    <row r="43" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>65</v>
       </c>
@@ -3582,7 +3596,7 @@
       <c r="D43" s="38"/>
       <c r="E43" s="38"/>
     </row>
-    <row r="44" spans="1:5" ht="135" customHeight="1">
+    <row r="44" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
@@ -3595,7 +3609,7 @@
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
     </row>
-    <row r="45" spans="1:5" ht="75" customHeight="1">
+    <row r="45" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
@@ -3608,7 +3622,7 @@
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
     </row>
-    <row r="46" spans="1:5" ht="75" customHeight="1">
+    <row r="46" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>65</v>
       </c>
@@ -3621,7 +3635,7 @@
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="1:5" ht="75" customHeight="1">
+    <row r="47" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>65</v>
       </c>
@@ -3634,7 +3648,7 @@
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
     </row>
-    <row r="48" spans="1:5" ht="75" customHeight="1">
+    <row r="48" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>65</v>
       </c>
@@ -3647,7 +3661,7 @@
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
     </row>
-    <row r="49" spans="1:5" ht="75" customHeight="1">
+    <row r="49" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>65</v>
       </c>
@@ -3660,7 +3674,7 @@
       <c r="D49" s="38"/>
       <c r="E49" s="38"/>
     </row>
-    <row r="50" spans="1:5" ht="75" customHeight="1">
+    <row r="50" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>65</v>
       </c>
@@ -3673,7 +3687,7 @@
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
     </row>
-    <row r="51" spans="1:5" ht="75" customHeight="1">
+    <row r="51" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>65</v>
       </c>
@@ -3686,7 +3700,7 @@
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
     </row>
-    <row r="52" spans="1:5" ht="75" customHeight="1">
+    <row r="52" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>65</v>
       </c>
@@ -3699,7 +3713,7 @@
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
     </row>
-    <row r="53" spans="1:5" ht="75" customHeight="1">
+    <row r="53" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>65</v>
       </c>
@@ -3712,7 +3726,7 @@
       <c r="D53" s="38"/>
       <c r="E53" s="38"/>
     </row>
-    <row r="54" spans="1:5" ht="75" customHeight="1">
+    <row r="54" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>65</v>
       </c>
@@ -3725,7 +3739,7 @@
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
     </row>
-    <row r="55" spans="1:5" ht="75" customHeight="1">
+    <row r="55" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>65</v>
       </c>
@@ -3738,7 +3752,7 @@
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
     </row>
-    <row r="56" spans="1:5" ht="75" customHeight="1">
+    <row r="56" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>65</v>
       </c>
@@ -3751,7 +3765,7 @@
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
     </row>
-    <row r="57" spans="1:5" ht="75" customHeight="1">
+    <row r="57" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>65</v>
       </c>
@@ -3764,7 +3778,7 @@
       <c r="D57" s="38"/>
       <c r="E57" s="38"/>
     </row>
-    <row r="58" spans="1:5" ht="75" customHeight="1">
+    <row r="58" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>65</v>
       </c>
@@ -3777,7 +3791,7 @@
       <c r="D58" s="38"/>
       <c r="E58" s="38"/>
     </row>
-    <row r="59" spans="1:5" ht="75" customHeight="1">
+    <row r="59" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>65</v>
       </c>
@@ -3790,7 +3804,7 @@
       <c r="D59" s="38"/>
       <c r="E59" s="38"/>
     </row>
-    <row r="60" spans="1:5" ht="75" customHeight="1">
+    <row r="60" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>65</v>
       </c>
@@ -3803,7 +3817,7 @@
       <c r="D60" s="38"/>
       <c r="E60" s="38"/>
     </row>
-    <row r="61" spans="1:5" ht="165" customHeight="1">
+    <row r="61" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>65</v>
       </c>
@@ -3816,7 +3830,7 @@
       <c r="D61" s="38"/>
       <c r="E61" s="38"/>
     </row>
-    <row r="62" spans="1:5" ht="64.5" customHeight="1">
+    <row r="62" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>104</v>
       </c>
@@ -3829,7 +3843,7 @@
       <c r="D62" s="38"/>
       <c r="E62" s="38"/>
     </row>
-    <row r="63" spans="1:5" ht="135" customHeight="1">
+    <row r="63" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>104</v>
       </c>
@@ -3842,7 +3856,7 @@
       <c r="D63" s="38"/>
       <c r="E63" s="38"/>
     </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1">
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>104</v>
       </c>
@@ -3855,7 +3869,7 @@
       <c r="D64" s="38"/>
       <c r="E64" s="38"/>
     </row>
-    <row r="65" spans="1:5" ht="90" customHeight="1">
+    <row r="65" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>104</v>
       </c>
@@ -3868,7 +3882,7 @@
       <c r="D65" s="38"/>
       <c r="E65" s="38"/>
     </row>
-    <row r="66" spans="1:5" ht="135" customHeight="1">
+    <row r="66" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
@@ -3881,7 +3895,7 @@
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
     </row>
-    <row r="67" spans="1:5" ht="135" customHeight="1">
+    <row r="67" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>104</v>
       </c>
@@ -3894,7 +3908,7 @@
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
     </row>
-    <row r="68" spans="1:5" ht="142.5" customHeight="1">
+    <row r="68" spans="1:5" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
@@ -3907,7 +3921,7 @@
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
     </row>
-    <row r="69" spans="1:5" ht="105" customHeight="1">
+    <row r="69" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>104</v>
       </c>
@@ -3920,7 +3934,7 @@
       <c r="D69" s="38"/>
       <c r="E69" s="38"/>
     </row>
-    <row r="70" spans="1:5" ht="120.75" customHeight="1">
+    <row r="70" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>104</v>
       </c>
@@ -3935,7 +3949,7 @@
       </c>
       <c r="E70" s="38"/>
     </row>
-    <row r="71" spans="1:5" ht="75" customHeight="1">
+    <row r="71" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>104</v>
       </c>
@@ -3950,7 +3964,7 @@
       </c>
       <c r="E71" s="38"/>
     </row>
-    <row r="72" spans="1:5" ht="92.25" customHeight="1">
+    <row r="72" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
@@ -3965,7 +3979,7 @@
       </c>
       <c r="E72" s="38"/>
     </row>
-    <row r="73" spans="1:5" ht="105" customHeight="1">
+    <row r="73" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>104</v>
       </c>
@@ -3980,7 +3994,7 @@
       </c>
       <c r="E73" s="38"/>
     </row>
-    <row r="74" spans="1:5" ht="195" customHeight="1">
+    <row r="74" spans="1:5" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>104</v>
       </c>
@@ -3995,7 +4009,7 @@
       </c>
       <c r="E74" s="38"/>
     </row>
-    <row r="75" spans="1:5" ht="120" customHeight="1">
+    <row r="75" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>104</v>
       </c>
@@ -4012,7 +4026,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="120" customHeight="1">
+    <row r="76" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>134</v>
       </c>
@@ -4025,7 +4039,7 @@
       <c r="D76" s="37"/>
       <c r="E76" s="24"/>
     </row>
-    <row r="77" spans="1:5" ht="120" customHeight="1">
+    <row r="77" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>134</v>
       </c>
@@ -4038,7 +4052,7 @@
       <c r="D77" s="37"/>
       <c r="E77" s="24"/>
     </row>
-    <row r="78" spans="1:5" ht="120" customHeight="1">
+    <row r="78" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>134</v>
       </c>
@@ -4051,7 +4065,7 @@
       <c r="D78" s="37"/>
       <c r="E78" s="24"/>
     </row>
-    <row r="79" spans="1:5" ht="120" customHeight="1">
+    <row r="79" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>134</v>
       </c>
@@ -4064,7 +4078,7 @@
       <c r="D79" s="37"/>
       <c r="E79" s="24"/>
     </row>
-    <row r="80" spans="1:5" ht="120" customHeight="1">
+    <row r="80" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>134</v>
       </c>
@@ -4077,7 +4091,7 @@
       <c r="D80" s="37"/>
       <c r="E80" s="24"/>
     </row>
-    <row r="81" spans="1:5" ht="120" customHeight="1">
+    <row r="81" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>134</v>
       </c>
@@ -4090,7 +4104,7 @@
       <c r="D81" s="37"/>
       <c r="E81" s="24"/>
     </row>
-    <row r="82" spans="1:5" ht="120" customHeight="1">
+    <row r="82" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>134</v>
       </c>
@@ -4103,7 +4117,7 @@
       <c r="D82" s="37"/>
       <c r="E82" s="24"/>
     </row>
-    <row r="83" spans="1:5" ht="120" customHeight="1">
+    <row r="83" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>134</v>
       </c>
@@ -4116,7 +4130,7 @@
       <c r="D83" s="37"/>
       <c r="E83" s="24"/>
     </row>
-    <row r="84" spans="1:5" ht="120" customHeight="1">
+    <row r="84" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>134</v>
       </c>
@@ -4129,7 +4143,7 @@
       <c r="D84" s="37"/>
       <c r="E84" s="24"/>
     </row>
-    <row r="85" spans="1:5" ht="120" customHeight="1">
+    <row r="85" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>134</v>
       </c>
@@ -4142,7 +4156,7 @@
       <c r="D85" s="37"/>
       <c r="E85" s="24"/>
     </row>
-    <row r="86" spans="1:5" ht="120" customHeight="1">
+    <row r="86" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>134</v>
       </c>
@@ -4155,7 +4169,7 @@
       <c r="D86" s="37"/>
       <c r="E86" s="24"/>
     </row>
-    <row r="87" spans="1:5" ht="120" customHeight="1">
+    <row r="87" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>134</v>
       </c>
@@ -4168,7 +4182,7 @@
       <c r="D87" s="37"/>
       <c r="E87" s="24"/>
     </row>
-    <row r="88" spans="1:5" ht="120" customHeight="1">
+    <row r="88" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>134</v>
       </c>
@@ -4181,7 +4195,7 @@
       <c r="D88" s="37"/>
       <c r="E88" s="24"/>
     </row>
-    <row r="89" spans="1:5" ht="120" customHeight="1">
+    <row r="89" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>134</v>
       </c>
@@ -4194,7 +4208,7 @@
       <c r="D89" s="37"/>
       <c r="E89" s="24"/>
     </row>
-    <row r="90" spans="1:5" ht="120" customHeight="1">
+    <row r="90" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>134</v>
       </c>
@@ -4207,7 +4221,7 @@
       <c r="D90" s="37"/>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="1:5" ht="120" customHeight="1">
+    <row r="91" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>134</v>
       </c>
@@ -4220,7 +4234,7 @@
       <c r="D91" s="37"/>
       <c r="E91" s="24"/>
     </row>
-    <row r="92" spans="1:5" ht="120" customHeight="1">
+    <row r="92" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>159</v>
       </c>
@@ -4235,7 +4249,7 @@
       </c>
       <c r="E92" s="24"/>
     </row>
-    <row r="93" spans="1:5" ht="60" customHeight="1">
+    <row r="93" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>159</v>
       </c>
@@ -4250,7 +4264,7 @@
       </c>
       <c r="E93" s="24"/>
     </row>
-    <row r="94" spans="1:5" ht="120" customHeight="1">
+    <row r="94" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>165</v>
       </c>
@@ -4265,7 +4279,7 @@
       </c>
       <c r="E94" s="25"/>
     </row>
-    <row r="95" spans="1:5" ht="150" customHeight="1">
+    <row r="95" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>165</v>
       </c>
@@ -4280,7 +4294,7 @@
       </c>
       <c r="E95" s="25"/>
     </row>
-    <row r="96" spans="1:5" ht="240" customHeight="1">
+    <row r="96" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>165</v>
       </c>
@@ -4293,7 +4307,7 @@
       <c r="D96" s="38"/>
       <c r="E96" s="25"/>
     </row>
-    <row r="97" spans="1:5" ht="135" customHeight="1">
+    <row r="97" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>165</v>
       </c>
@@ -4306,7 +4320,7 @@
       <c r="D97" s="38"/>
       <c r="E97" s="25"/>
     </row>
-    <row r="98" spans="1:5" ht="60" customHeight="1">
+    <row r="98" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>174</v>
       </c>
@@ -4319,7 +4333,7 @@
       <c r="D98" s="38"/>
       <c r="E98" s="25"/>
     </row>
-    <row r="99" spans="1:5" ht="240" customHeight="1">
+    <row r="99" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>174</v>
       </c>
@@ -4332,7 +4346,7 @@
       <c r="D99" s="38"/>
       <c r="E99" s="25"/>
     </row>
-    <row r="100" spans="1:5" ht="113.25" customHeight="1">
+    <row r="100" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>174</v>
       </c>
@@ -4345,7 +4359,7 @@
       <c r="D100" s="38"/>
       <c r="E100" s="25"/>
     </row>
-    <row r="101" spans="1:5" ht="135" customHeight="1">
+    <row r="101" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>174</v>
       </c>
@@ -4358,7 +4372,7 @@
       <c r="D101" s="38"/>
       <c r="E101" s="25"/>
     </row>
-    <row r="102" spans="1:5" ht="118.5" customHeight="1">
+    <row r="102" spans="1:5" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>174</v>
       </c>
@@ -4371,7 +4385,7 @@
       <c r="D102" s="38"/>
       <c r="E102" s="25"/>
     </row>
-    <row r="103" spans="1:5" ht="213.75" customHeight="1">
+    <row r="103" spans="1:5" ht="213.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>174</v>
       </c>
@@ -4384,7 +4398,7 @@
       <c r="D103" s="38"/>
       <c r="E103" s="25"/>
     </row>
-    <row r="104" spans="1:5" ht="102.75" customHeight="1">
+    <row r="104" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>174</v>
       </c>
@@ -4397,7 +4411,7 @@
       <c r="D104" s="38"/>
       <c r="E104" s="25"/>
     </row>
-    <row r="105" spans="1:5" ht="150" customHeight="1">
+    <row r="105" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>174</v>
       </c>
@@ -4410,7 +4424,7 @@
       <c r="D105" s="38"/>
       <c r="E105" s="25"/>
     </row>
-    <row r="106" spans="1:5" ht="106.5" customHeight="1">
+    <row r="106" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>174</v>
       </c>
@@ -4423,7 +4437,7 @@
       <c r="D106" s="38"/>
       <c r="E106" s="25"/>
     </row>
-    <row r="107" spans="1:5" ht="210.75" customHeight="1">
+    <row r="107" spans="1:5" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>174</v>
       </c>
@@ -4436,7 +4450,7 @@
       <c r="D107" s="38"/>
       <c r="E107" s="25"/>
     </row>
-    <row r="108" spans="1:5" ht="121.5" customHeight="1">
+    <row r="108" spans="1:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>174</v>
       </c>
@@ -4449,7 +4463,7 @@
       <c r="D108" s="38"/>
       <c r="E108" s="25"/>
     </row>
-    <row r="109" spans="1:5" ht="45" customHeight="1">
+    <row r="109" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>174</v>
       </c>
@@ -4464,7 +4478,7 @@
       </c>
       <c r="E109" s="25"/>
     </row>
-    <row r="110" spans="1:5" ht="45" customHeight="1">
+    <row r="110" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>192</v>
       </c>
@@ -4479,7 +4493,7 @@
       </c>
       <c r="E110" s="25"/>
     </row>
-    <row r="111" spans="1:5" ht="57" customHeight="1">
+    <row r="111" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>192</v>
       </c>
@@ -4494,7 +4508,7 @@
       </c>
       <c r="E111" s="25"/>
     </row>
-    <row r="112" spans="1:5" ht="45" customHeight="1">
+    <row r="112" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>192</v>
       </c>
@@ -4509,7 +4523,7 @@
       </c>
       <c r="E112" s="25"/>
     </row>
-    <row r="113" spans="1:5" ht="45" customHeight="1">
+    <row r="113" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>197</v>
       </c>
@@ -4524,7 +4538,7 @@
       </c>
       <c r="E113" s="25"/>
     </row>
-    <row r="114" spans="1:5" ht="45" customHeight="1">
+    <row r="114" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>197</v>
       </c>
@@ -4539,7 +4553,7 @@
       </c>
       <c r="E114" s="25"/>
     </row>
-    <row r="115" spans="1:5" ht="45" customHeight="1">
+    <row r="115" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>197</v>
       </c>
@@ -4554,7 +4568,7 @@
       </c>
       <c r="E115" s="26"/>
     </row>
-    <row r="116" spans="1:5" ht="45" customHeight="1">
+    <row r="116" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>197</v>
       </c>
@@ -4569,7 +4583,7 @@
       </c>
       <c r="E116" s="26"/>
     </row>
-    <row r="117" spans="1:5" ht="180" customHeight="1">
+    <row r="117" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>197</v>
       </c>
@@ -4582,7 +4596,7 @@
       <c r="D117" s="40"/>
       <c r="E117" s="26"/>
     </row>
-    <row r="118" spans="1:5" ht="259.5" customHeight="1">
+    <row r="118" spans="1:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>203</v>
       </c>
@@ -4590,17 +4604,17 @@
         <v>204</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="D118" s="40"/>
       <c r="E118" s="26"/>
     </row>
-    <row r="119" spans="1:5" ht="259.5" customHeight="1">
+    <row r="119" spans="1:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>18</v>
@@ -4608,51 +4622,51 @@
       <c r="D119" s="40"/>
       <c r="E119" s="26"/>
     </row>
-    <row r="120" spans="1:5" ht="259.5" customHeight="1">
+    <row r="120" spans="1:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B120" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D120" s="40"/>
       <c r="E120" s="26"/>
     </row>
-    <row r="121" spans="1:5" ht="105" customHeight="1">
+    <row r="121" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D121" s="40"/>
       <c r="E121" s="26"/>
     </row>
-    <row r="122" spans="1:5" ht="50.25" customHeight="1">
+    <row r="122" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B122" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D122" s="40"/>
       <c r="E122" s="26"/>
     </row>
-    <row r="123" spans="1:5" ht="50.25" customHeight="1">
+    <row r="123" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>18</v>
@@ -4660,77 +4674,77 @@
       <c r="D123" s="40"/>
       <c r="E123" s="26"/>
     </row>
-    <row r="124" spans="1:5" ht="255.75" customHeight="1">
+    <row r="124" spans="1:5" ht="255.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="D124" s="40"/>
       <c r="E124" s="26"/>
     </row>
-    <row r="125" spans="1:5" ht="100.5" customHeight="1">
+    <row r="125" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B125" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D125" s="40"/>
       <c r="E125" s="26"/>
     </row>
-    <row r="126" spans="1:5" ht="50.25" customHeight="1">
+    <row r="126" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B126" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="D126" s="40"/>
       <c r="E126" s="26"/>
     </row>
-    <row r="127" spans="1:5" ht="75" customHeight="1">
+    <row r="127" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B127" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D127" s="40"/>
       <c r="E127" s="26"/>
     </row>
-    <row r="128" spans="1:5" ht="81.75" customHeight="1">
+    <row r="128" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B128" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="D128" s="40"/>
       <c r="E128" s="26"/>
     </row>
-    <row r="129" spans="1:5" ht="30" customHeight="1">
+    <row r="129" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="52" t="s">
         <v>203</v>
       </c>
       <c r="B129" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C129" s="54" t="s">
         <v>108</v>
@@ -4738,12 +4752,12 @@
       <c r="D129" s="55"/>
       <c r="E129" s="56"/>
     </row>
-    <row r="130" spans="1:5" ht="30" customHeight="1">
+    <row r="130" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="52" t="s">
         <v>203</v>
       </c>
       <c r="B130" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C130" s="54" t="s">
         <v>108</v>
@@ -4751,12 +4765,12 @@
       <c r="D130" s="55"/>
       <c r="E130" s="56"/>
     </row>
-    <row r="131" spans="1:5" ht="30" customHeight="1">
+    <row r="131" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="52" t="s">
         <v>203</v>
       </c>
       <c r="B131" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C131" s="54" t="s">
         <v>108</v>
@@ -4764,12 +4778,12 @@
       <c r="D131" s="55"/>
       <c r="E131" s="56"/>
     </row>
-    <row r="132" spans="1:5" ht="30" customHeight="1">
+    <row r="132" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="52" t="s">
         <v>203</v>
       </c>
       <c r="B132" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C132" s="54" t="s">
         <v>108</v>
@@ -4777,12 +4791,12 @@
       <c r="D132" s="55"/>
       <c r="E132" s="56"/>
     </row>
-    <row r="133" spans="1:5" ht="180" customHeight="1">
+    <row r="133" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="52" t="s">
         <v>203</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C133" s="54" t="s">
         <v>108</v>
@@ -4790,12 +4804,12 @@
       <c r="D133" s="55"/>
       <c r="E133" s="56"/>
     </row>
-    <row r="134" spans="1:5" ht="180" customHeight="1">
+    <row r="134" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B134" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C134" s="59" t="s">
         <v>108</v>
@@ -4803,12 +4817,12 @@
       <c r="D134" s="40"/>
       <c r="E134" s="26"/>
     </row>
-    <row r="135" spans="1:5" ht="180" customHeight="1">
+    <row r="135" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B135" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C135" s="59" t="s">
         <v>108</v>
@@ -4816,12 +4830,12 @@
       <c r="D135" s="40"/>
       <c r="E135" s="26"/>
     </row>
-    <row r="136" spans="1:5" ht="180" customHeight="1">
+    <row r="136" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B136" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C136" s="59" t="s">
         <v>108</v>
@@ -4829,12 +4843,12 @@
       <c r="D136" s="40"/>
       <c r="E136" s="26"/>
     </row>
-    <row r="137" spans="1:5" ht="180" customHeight="1">
+    <row r="137" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B137" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C137" s="59" t="s">
         <v>108</v>
@@ -4842,12 +4856,12 @@
       <c r="D137" s="40"/>
       <c r="E137" s="26"/>
     </row>
-    <row r="138" spans="1:5" ht="180" customHeight="1">
+    <row r="138" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B138" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C138" s="59" t="s">
         <v>108</v>
@@ -4855,12 +4869,12 @@
       <c r="D138" s="40"/>
       <c r="E138" s="26"/>
     </row>
-    <row r="139" spans="1:5" ht="180" customHeight="1">
+    <row r="139" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B139" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C139" s="59" t="s">
         <v>108</v>
@@ -4868,12 +4882,12 @@
       <c r="D139" s="40"/>
       <c r="E139" s="26"/>
     </row>
-    <row r="140" spans="1:5" ht="180" customHeight="1">
+    <row r="140" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B140" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C140" s="59" t="s">
         <v>108</v>
@@ -4881,12 +4895,12 @@
       <c r="D140" s="40"/>
       <c r="E140" s="26"/>
     </row>
-    <row r="141" spans="1:5" ht="180" customHeight="1">
+    <row r="141" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B141" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C141" s="59" t="s">
         <v>108</v>
@@ -4894,12 +4908,12 @@
       <c r="D141" s="40"/>
       <c r="E141" s="26"/>
     </row>
-    <row r="142" spans="1:5" ht="180" customHeight="1">
+    <row r="142" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C142" s="59" t="s">
         <v>108</v>
@@ -4907,12 +4921,12 @@
       <c r="D142" s="40"/>
       <c r="E142" s="26"/>
     </row>
-    <row r="143" spans="1:5" ht="180" customHeight="1">
+    <row r="143" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B143" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C143" s="59" t="s">
         <v>108</v>
@@ -4920,12 +4934,12 @@
       <c r="D143" s="40"/>
       <c r="E143" s="26"/>
     </row>
-    <row r="144" spans="1:5" ht="180" customHeight="1">
+    <row r="144" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>29</v>
@@ -4933,124 +4947,124 @@
       <c r="D144" s="40"/>
       <c r="E144" s="26"/>
     </row>
-    <row r="145" spans="1:5" ht="30" customHeight="1">
+    <row r="145" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D145" s="40"/>
       <c r="E145" s="26"/>
     </row>
-    <row r="146" spans="1:5" ht="30" customHeight="1">
+    <row r="146" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="52" t="s">
         <v>203</v>
       </c>
       <c r="B146" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C146" s="54" t="s">
         <v>238</v>
-      </c>
-      <c r="C146" s="54" t="s">
-        <v>239</v>
       </c>
       <c r="D146" s="55"/>
       <c r="E146" s="56"/>
     </row>
-    <row r="147" spans="1:5" ht="30" customHeight="1">
+    <row r="147" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="52" t="s">
         <v>203</v>
       </c>
       <c r="B147" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C147" s="54" t="s">
         <v>240</v>
-      </c>
-      <c r="C147" s="54" t="s">
-        <v>241</v>
       </c>
       <c r="D147" s="55"/>
       <c r="E147" s="56"/>
     </row>
-    <row r="148" spans="1:5" ht="30" customHeight="1">
+    <row r="148" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="52" t="s">
         <v>203</v>
       </c>
       <c r="B148" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C148" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D148" s="55"/>
       <c r="E148" s="56"/>
     </row>
-    <row r="149" spans="1:5" ht="42.75" customHeight="1">
+    <row r="149" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D149" s="40"/>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="1:5" ht="132" customHeight="1">
+    <row r="150" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D150" s="40"/>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="1:5" ht="30" customHeight="1">
+    <row r="151" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B151" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="D151" s="40"/>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="1:5" ht="30" customHeight="1">
+    <row r="152" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B152" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="D152" s="40"/>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="1:5" ht="149.25" customHeight="1">
+    <row r="153" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D153" s="40"/>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="1:5" ht="30" customHeight="1">
+    <row r="154" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>134</v>
       </c>
@@ -5058,64 +5072,64 @@
         <v>143</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D154" s="40"/>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="1:5" ht="30" customHeight="1">
+    <row r="155" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D155" s="40"/>
       <c r="E155" s="26"/>
     </row>
-    <row r="156" spans="1:5" ht="105" customHeight="1">
+    <row r="156" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="26"/>
     </row>
-    <row r="157" spans="1:5" ht="105" customHeight="1">
+    <row r="157" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B157" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="D157" s="40"/>
       <c r="E157" s="26"/>
     </row>
-    <row r="158" spans="1:5" ht="90" customHeight="1">
+    <row r="158" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D158" s="40"/>
       <c r="E158" s="26"/>
     </row>
-    <row r="159" spans="1:5" ht="60" customHeight="1">
+    <row r="159" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>134</v>
       </c>
@@ -5123,12 +5137,12 @@
         <v>148</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D159" s="40"/>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="1:5" ht="60" customHeight="1">
+    <row r="160" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>134</v>
       </c>
@@ -5136,38 +5150,38 @@
         <v>150</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D160" s="40"/>
       <c r="E160" s="26"/>
     </row>
-    <row r="161" spans="1:5" ht="60" customHeight="1">
+    <row r="161" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B161" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="D161" s="40"/>
       <c r="E161" s="26"/>
     </row>
-    <row r="162" spans="1:5" ht="60" customHeight="1">
+    <row r="162" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="D162" s="40"/>
       <c r="E162" s="26"/>
     </row>
-    <row r="163" spans="1:5" ht="90" customHeight="1">
+    <row r="163" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>134</v>
       </c>
@@ -5175,194 +5189,194 @@
         <v>156</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D163" s="41"/>
       <c r="E163" s="27"/>
     </row>
-    <row r="164" spans="1:5" ht="87.75" customHeight="1">
+    <row r="164" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
         <v>134</v>
       </c>
       <c r="B164" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="D164" s="42"/>
       <c r="E164" s="28"/>
     </row>
-    <row r="165" spans="1:5" ht="109.5" customHeight="1">
+    <row r="165" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B165" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="C165" s="18" t="s">
         <v>264</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>265</v>
       </c>
       <c r="D165" s="42"/>
       <c r="E165" s="28"/>
     </row>
-    <row r="166" spans="1:5" ht="103.5" customHeight="1">
+    <row r="166" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D166" s="42"/>
       <c r="E166" s="28"/>
     </row>
-    <row r="167" spans="1:5" ht="164.25" customHeight="1">
+    <row r="167" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B167" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C167" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="D167" s="42"/>
       <c r="E167" s="28"/>
     </row>
-    <row r="168" spans="1:5" ht="164.25" customHeight="1">
+    <row r="168" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D168" s="42"/>
       <c r="E168" s="28"/>
     </row>
-    <row r="169" spans="1:5" ht="164.25" customHeight="1">
+    <row r="169" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C169" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>271</v>
       </c>
       <c r="D169" s="42"/>
       <c r="E169" s="28"/>
     </row>
-    <row r="170" spans="1:5" ht="164.25" customHeight="1">
+    <row r="170" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D170" s="42"/>
       <c r="E170" s="28"/>
     </row>
-    <row r="171" spans="1:5" ht="164.25" customHeight="1">
+    <row r="171" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D171" s="42"/>
       <c r="E171" s="28"/>
     </row>
-    <row r="172" spans="1:5" ht="164.25" customHeight="1">
+    <row r="172" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D172" s="42"/>
       <c r="E172" s="28"/>
     </row>
-    <row r="173" spans="1:5" ht="164.25" customHeight="1">
+    <row r="173" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D173" s="42"/>
       <c r="E173" s="28"/>
     </row>
-    <row r="174" spans="1:5" ht="164.25" customHeight="1">
+    <row r="174" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D174" s="42"/>
       <c r="E174" s="28"/>
     </row>
-    <row r="175" spans="1:5" ht="164.25" customHeight="1">
+    <row r="175" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D175" s="42"/>
       <c r="E175" s="28"/>
     </row>
-    <row r="176" spans="1:5" ht="164.25" customHeight="1">
+    <row r="176" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B176" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C176" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="D176" s="42"/>
       <c r="E176" s="28"/>
     </row>
-    <row r="177" spans="1:6" ht="164.25" customHeight="1">
+    <row r="177" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B177" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C177" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="D177" s="42"/>
       <c r="E177" s="28"/>
     </row>
-    <row r="178" spans="1:6" ht="164.25" customHeight="1">
+    <row r="178" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="16" t="s">
         <v>192</v>
       </c>
@@ -5370,12 +5384,12 @@
         <v>193</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D178" s="42"/>
       <c r="E178" s="28"/>
     </row>
-    <row r="179" spans="1:6" ht="164.25" customHeight="1">
+    <row r="179" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="16" t="s">
         <v>192</v>
       </c>
@@ -5383,12 +5397,12 @@
         <v>195</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D179" s="42"/>
       <c r="E179" s="28"/>
     </row>
-    <row r="180" spans="1:6" ht="164.25" customHeight="1">
+    <row r="180" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="16" t="s">
         <v>192</v>
       </c>
@@ -5396,152 +5410,152 @@
         <v>196</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D180" s="42"/>
       <c r="E180" s="29"/>
     </row>
-    <row r="181" spans="1:6" ht="164.25" customHeight="1">
+    <row r="181" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B181" s="20" t="s">
-        <v>284</v>
-      </c>
       <c r="C181" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D181" s="43"/>
       <c r="E181" s="30"/>
       <c r="F181" s="22"/>
     </row>
-    <row r="182" spans="1:6" ht="164.25" customHeight="1">
+    <row r="182" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D182" s="43"/>
       <c r="E182" s="31"/>
       <c r="F182" s="22"/>
     </row>
-    <row r="183" spans="1:6" ht="164.25" customHeight="1">
+    <row r="183" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D183" s="44"/>
       <c r="E183" s="30"/>
       <c r="F183" s="22"/>
     </row>
-    <row r="184" spans="1:6" ht="120" customHeight="1">
+    <row r="184" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D184" s="45"/>
       <c r="E184" s="32"/>
       <c r="F184" s="22"/>
     </row>
-    <row r="185" spans="1:6" ht="120" customHeight="1">
+    <row r="185" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B185" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B185" s="19" t="s">
+      <c r="C185" s="18" t="s">
         <v>289</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>290</v>
       </c>
       <c r="D185" s="46"/>
       <c r="E185" s="33"/>
       <c r="F185" s="22"/>
     </row>
-    <row r="186" spans="1:6" ht="120" customHeight="1">
+    <row r="186" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B186" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C186" s="23" t="s">
         <v>291</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>292</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="34"/>
       <c r="F186" s="22"/>
     </row>
-    <row r="187" spans="1:6" ht="120" customHeight="1">
+    <row r="187" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B187" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C187" s="23" t="s">
         <v>293</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>294</v>
       </c>
       <c r="D187" s="47"/>
       <c r="E187" s="35"/>
       <c r="F187" s="22"/>
     </row>
-    <row r="188" spans="1:6" ht="120" customHeight="1">
+    <row r="188" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B188" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C188" s="23" t="s">
         <v>295</v>
-      </c>
-      <c r="C188" s="23" t="s">
-        <v>296</v>
       </c>
       <c r="D188" s="47"/>
       <c r="E188" s="32"/>
       <c r="F188" s="22"/>
     </row>
-    <row r="189" spans="1:6" ht="120" customHeight="1">
+    <row r="189" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D189" s="48"/>
       <c r="E189" s="30"/>
       <c r="F189" s="22"/>
     </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1">
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B190" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="B190" s="20" t="s">
+      <c r="C190" s="18" t="s">
         <v>299</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>300</v>
       </c>
       <c r="D190" s="49"/>
       <c r="E190" s="36"/>
       <c r="F190" s="22"/>
     </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1">
+    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D191" s="22"/>
       <c r="E191" s="22"/>
     </row>
